--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link1_request800.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link1_request800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1898"/>
+  <dimension ref="A1:C1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.9304</v>
+        <v>18.9304</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>0.1064</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="117">
@@ -1718,7 +1718,7 @@
         <v>0.3368</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="118">
@@ -1729,7 +1729,7 @@
         <v>0.2992</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="119">
@@ -1740,7 +1740,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="120">
@@ -2730,7 +2730,7 @@
         <v>3.132</v>
       </c>
       <c r="C209" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="210">
@@ -2741,7 +2741,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C210" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="211">
@@ -2752,7 +2752,7 @@
         <v>0.588</v>
       </c>
       <c r="C211" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="212">
@@ -2763,7 +2763,7 @@
         <v>0.4072000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>0.192</v>
       </c>
       <c r="C213" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="214">
@@ -2785,7 +2785,7 @@
         <v>0.556</v>
       </c>
       <c r="C214" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="215">
@@ -2796,7 +2796,7 @@
         <v>0.2</v>
       </c>
       <c r="C215" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="216">
@@ -2807,7 +2807,7 @@
         <v>1.652</v>
       </c>
       <c r="C216" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="217">
@@ -3753,7 +3753,7 @@
         <v>0.24</v>
       </c>
       <c r="C302" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="303">
@@ -3764,7 +3764,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C303" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="304">
@@ -3775,7 +3775,7 @@
         <v>1.596</v>
       </c>
       <c r="C304" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="305">
@@ -3786,7 +3786,7 @@
         <v>5.0064</v>
       </c>
       <c r="C305" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="306">
@@ -3797,7 +3797,7 @@
         <v>2.572</v>
       </c>
       <c r="C306" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="307">
@@ -4127,7 +4127,7 @@
         <v>4.928</v>
       </c>
       <c r="C336" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="337">
@@ -5139,7 +5139,7 @@
         <v>3.9584</v>
       </c>
       <c r="C428" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="429">
@@ -5150,7 +5150,7 @@
         <v>0.152</v>
       </c>
       <c r="C429" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="430">
@@ -5161,7 +5161,7 @@
         <v>1.8304</v>
       </c>
       <c r="C430" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="431">
@@ -5172,7 +5172,7 @@
         <v>0.7728</v>
       </c>
       <c r="C431" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="432">
@@ -5183,7 +5183,7 @@
         <v>2.7592</v>
       </c>
       <c r="C432" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="433">
@@ -5194,7 +5194,7 @@
         <v>0.904</v>
       </c>
       <c r="C433" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="434">
@@ -5205,7 +5205,7 @@
         <v>0.008</v>
       </c>
       <c r="C434" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="435">
@@ -5216,7 +5216,7 @@
         <v>10.4256</v>
       </c>
       <c r="C435" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="436">
@@ -5656,7 +5656,7 @@
         <v>4.4272</v>
       </c>
       <c r="C475" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="476">
@@ -5667,7 +5667,7 @@
         <v>1.332</v>
       </c>
       <c r="C476" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="477">
@@ -5920,7 +5920,7 @@
         <v>9.4176</v>
       </c>
       <c r="C499" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="500">
@@ -7064,7 +7064,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C603" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="604">
@@ -7075,7 +7075,7 @@
         <v>2.4184</v>
       </c>
       <c r="C604" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="605">
@@ -7086,7 +7086,7 @@
         <v>0.7728</v>
       </c>
       <c r="C605" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="606">
@@ -7097,7 +7097,7 @@
         <v>2.7592</v>
       </c>
       <c r="C606" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="607">
@@ -7108,7 +7108,7 @@
         <v>0.904</v>
       </c>
       <c r="C607" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="608">
@@ -7119,7 +7119,7 @@
         <v>11.3296</v>
       </c>
       <c r="C608" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="609">
@@ -7559,7 +7559,7 @@
         <v>4.4272</v>
       </c>
       <c r="C648" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="649">
@@ -7570,7 +7570,7 @@
         <v>1.332</v>
       </c>
       <c r="C649" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="650">
@@ -7823,7 +7823,7 @@
         <v>9.4176</v>
       </c>
       <c r="C672" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="673">
@@ -8967,7 +8967,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C776" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="777">
@@ -8978,7 +8978,7 @@
         <v>2.4184</v>
       </c>
       <c r="C777" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="778">
@@ -8989,7 +8989,7 @@
         <v>0.7728</v>
       </c>
       <c r="C778" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="779">
@@ -9000,7 +9000,7 @@
         <v>2.7592</v>
       </c>
       <c r="C779" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="780">
@@ -9011,7 +9011,7 @@
         <v>0.904</v>
       </c>
       <c r="C780" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="781">
@@ -9022,7 +9022,7 @@
         <v>11.3296</v>
       </c>
       <c r="C781" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="782">
@@ -9462,7 +9462,7 @@
         <v>4.4272</v>
       </c>
       <c r="C821" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="822">
@@ -9473,7 +9473,7 @@
         <v>1.332</v>
       </c>
       <c r="C822" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="823">
@@ -9726,7 +9726,7 @@
         <v>9.4176</v>
       </c>
       <c r="C845" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="846">
@@ -10870,7 +10870,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C949" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="950">
@@ -10881,7 +10881,7 @@
         <v>2.4184</v>
       </c>
       <c r="C950" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="951">
@@ -10892,7 +10892,7 @@
         <v>0.7728</v>
       </c>
       <c r="C951" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="952">
@@ -10903,7 +10903,7 @@
         <v>2.7592</v>
       </c>
       <c r="C952" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="953">
@@ -10914,7 +10914,7 @@
         <v>0.904</v>
       </c>
       <c r="C953" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="954">
@@ -10925,7 +10925,7 @@
         <v>11.3296</v>
       </c>
       <c r="C954" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="955">
@@ -11365,7 +11365,7 @@
         <v>4.4272</v>
       </c>
       <c r="C994" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="995">
@@ -11376,7 +11376,7 @@
         <v>1.332</v>
       </c>
       <c r="C995" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="996">
@@ -11629,7 +11629,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1018" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1019">
@@ -12773,7 +12773,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1122" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1123">
@@ -12784,7 +12784,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1123" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1124">
@@ -12795,7 +12795,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1124" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1125">
@@ -12806,7 +12806,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1125" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1126">
@@ -12817,7 +12817,7 @@
         <v>0.904</v>
       </c>
       <c r="C1126" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1127">
@@ -12828,7 +12828,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1127" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1128">
@@ -13268,7 +13268,7 @@
         <v>4.4272</v>
       </c>
       <c r="C1167" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1168">
@@ -13279,7 +13279,7 @@
         <v>1.332</v>
       </c>
       <c r="C1168" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1169">
@@ -13532,7 +13532,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1191" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1192">
@@ -14676,7 +14676,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1295" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1296">
@@ -14687,7 +14687,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1296" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1297">
@@ -14698,7 +14698,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1297" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1298">
@@ -14709,7 +14709,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1298" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1299">
@@ -14720,7 +14720,7 @@
         <v>0.904</v>
       </c>
       <c r="C1299" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1300">
@@ -14731,7 +14731,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1300" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1301">
@@ -15171,7 +15171,7 @@
         <v>4.4272</v>
       </c>
       <c r="C1340" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1341">
@@ -15182,7 +15182,7 @@
         <v>1.332</v>
       </c>
       <c r="C1341" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1342">
@@ -15435,7 +15435,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1364" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="1365">
@@ -16579,7 +16579,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1468" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1469">
@@ -16590,7 +16590,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1469" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1470">
@@ -16601,7 +16601,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1470" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1471">
@@ -16612,7 +16612,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1471" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1472">
@@ -16623,7 +16623,7 @@
         <v>0.904</v>
       </c>
       <c r="C1472" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1473">
@@ -16634,7 +16634,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1473" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1474">
@@ -17074,7 +17074,7 @@
         <v>4.4272</v>
       </c>
       <c r="C1513" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1514">
@@ -17085,7 +17085,7 @@
         <v>1.332</v>
       </c>
       <c r="C1514" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1515">
@@ -17338,7 +17338,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1537" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="1538">
@@ -18482,7 +18482,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1641" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1642">
@@ -18493,7 +18493,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1642" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1643">
@@ -18504,7 +18504,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1643" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1644">
@@ -18515,7 +18515,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1644" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1645">
@@ -18526,7 +18526,7 @@
         <v>0.904</v>
       </c>
       <c r="C1645" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1646">
@@ -18537,7 +18537,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1646" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1647">
@@ -18977,7 +18977,7 @@
         <v>4.4272</v>
       </c>
       <c r="C1686" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1687">
@@ -18988,7 +18988,7 @@
         <v>1.332</v>
       </c>
       <c r="C1687" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1688">
@@ -19241,7 +19241,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1710" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="1711">
@@ -20385,7 +20385,7 @@
         <v>5.322400000000001</v>
       </c>
       <c r="C1814" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1815">
@@ -20396,7 +20396,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1815" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1816">
@@ -20407,7 +20407,7 @@
         <v>0.7728</v>
       </c>
       <c r="C1816" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1817">
@@ -20418,7 +20418,7 @@
         <v>2.7592</v>
       </c>
       <c r="C1817" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1818">
@@ -20429,7 +20429,7 @@
         <v>0.904</v>
       </c>
       <c r="C1818" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1819">
@@ -20440,7 +20440,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1819" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1820">
@@ -20880,7 +20880,7 @@
         <v>4.4272</v>
       </c>
       <c r="C1859" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1860">
@@ -20891,7 +20891,7 @@
         <v>1.332</v>
       </c>
       <c r="C1860" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1861">
@@ -21144,7 +21144,7 @@
         <v>9.4176</v>
       </c>
       <c r="C1883" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="1884">
@@ -21273,7 +21273,7 @@
         <v>1893</v>
       </c>
       <c r="B1895" t="n">
-        <v>8.9192</v>
+        <v>8.910399999999999</v>
       </c>
       <c r="C1895" t="n">
         <v>12187501</v>
@@ -21284,7 +21284,7 @@
         <v>1894</v>
       </c>
       <c r="B1896" t="n">
-        <v>7.4256</v>
+        <v>7.3448</v>
       </c>
       <c r="C1896" t="n">
         <v>12187501</v>
@@ -21295,20 +21295,9 @@
         <v>1895</v>
       </c>
       <c r="B1897" t="n">
-        <v>11.4104</v>
+        <v>19.4976</v>
       </c>
       <c r="C1897" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" s="1" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B1898" t="n">
-        <v>23.9976</v>
-      </c>
-      <c r="C1898" t="n">
         <v>12187501</v>
       </c>
     </row>
